--- a/data/Subset1_WithDialogActs/Fraction as Number 5_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Fraction as Number 5_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -889,12 +889,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1497,12 +1497,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1649,12 +1649,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1725,12 +1725,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2147,12 +2147,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2185,12 +2185,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2337,12 +2337,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2715,12 +2715,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2791,12 +2791,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2943,12 +2943,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3019,12 +3019,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3817,12 +3817,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3931,12 +3931,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4083,12 +4083,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4235,12 +4235,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4273,12 +4273,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4653,12 +4653,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4767,12 +4767,12 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4999,12 +4999,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5493,12 +5493,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6329,12 +6329,12 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6823,12 +6823,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6975,12 +6975,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7545,12 +7545,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
